--- a/data/outputs/数学期刊(下)_altmetric/87Bulletin of the Iranian Mathematical Society.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/87Bulletin of the Iranian Mathematical Society.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE138"/>
+  <dimension ref="A1:CF138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1007,6 +1012,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1248,6 +1256,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1485,6 +1496,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1730,6 +1744,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1971,6 +1988,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2204,6 +2224,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2453,6 +2476,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2690,6 +2716,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2935,6 +2964,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3180,6 +3212,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3417,6 +3452,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3654,6 +3692,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3891,6 +3932,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4132,6 +4176,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4381,6 +4428,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4626,6 +4676,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4867,6 +4920,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5100,6 +5156,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5341,6 +5400,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5586,6 +5648,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5827,6 +5892,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6068,6 +6136,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6309,6 +6380,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6550,6 +6624,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6795,6 +6872,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7028,6 +7108,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7265,6 +7348,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7498,6 +7584,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7727,6 +7816,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7960,6 +8052,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8209,6 +8304,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8454,6 +8552,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8695,6 +8796,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8928,6 +9032,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9169,6 +9276,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9414,6 +9524,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9647,6 +9760,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9880,6 +9996,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10129,6 +10248,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10358,6 +10480,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10591,6 +10716,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10832,6 +10960,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11085,6 +11216,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11318,6 +11452,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11563,6 +11700,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11796,6 +11936,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12029,6 +12172,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12274,6 +12420,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12511,6 +12660,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12744,6 +12896,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12989,6 +13144,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13222,6 +13380,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13455,6 +13616,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13696,6 +13860,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13929,6 +14096,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14162,6 +14332,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14395,6 +14568,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14624,6 +14800,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14857,6 +15036,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15102,6 +15284,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15335,6 +15520,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15584,6 +15772,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15813,6 +16004,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16050,6 +16244,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16279,6 +16476,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16516,6 +16716,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16753,6 +16956,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16986,6 +17192,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17227,6 +17436,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17460,6 +17672,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17705,6 +17920,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17938,6 +18156,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18179,6 +18400,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18420,6 +18644,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18653,6 +18880,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18890,6 +19120,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19119,6 +19352,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19364,6 +19600,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19613,6 +19852,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -19858,6 +20100,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20103,6 +20348,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20336,6 +20584,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -20569,6 +20820,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -20798,6 +21052,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21031,6 +21288,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21268,6 +21528,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -21513,6 +21776,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -21754,6 +22020,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -21987,6 +22256,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22228,6 +22500,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -22461,6 +22736,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -22694,6 +22972,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -22931,6 +23212,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23164,6 +23448,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -23397,6 +23684,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -23634,6 +23924,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -23867,6 +24160,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24104,6 +24400,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24341,6 +24640,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -24578,6 +24880,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -24811,6 +25116,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25052,6 +25360,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25293,6 +25604,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -25526,6 +25840,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -25767,6 +26084,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26008,6 +26328,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -26249,6 +26572,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -26490,6 +26816,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -26727,6 +27056,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -26960,6 +27292,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27189,6 +27524,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -27430,6 +27768,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -27671,6 +28012,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -27916,6 +28260,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28151,6 +28498,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28374,6 +28724,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -28623,6 +28976,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -28868,6 +29224,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29105,6 +29464,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -29334,6 +29696,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -29575,6 +29940,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -29820,6 +30188,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30061,6 +30432,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -30302,6 +30676,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -30551,6 +30928,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -30792,6 +31172,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31025,6 +31408,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -31258,6 +31644,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -31495,6 +31884,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -31736,6 +32128,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -31969,6 +32364,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -32202,6 +32600,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -32439,6 +32840,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -32680,6 +33084,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -32913,6 +33320,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -33150,6 +33560,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -33387,6 +33800,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
